--- a/ha-resource/01_design/01_dashboard/設計書_1.5.カロリー計算機能.xlsx
+++ b/ha-resource/01_design/01_dashboard/設計書_1.5.カロリー計算機能.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\01_design\01_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D09877-7273-41A9-BBFD-18C0326DD113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECC8B0A-627F-43F7-8DB7-E82760361CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="1.機能一覧" sheetId="2" r:id="rId2"/>
     <sheet name="2.1.カロリー計算画面" sheetId="3" r:id="rId3"/>
     <sheet name="3.1. ファイルIF" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="データ入力例" sheetId="5" r:id="rId5"/>
+    <sheet name="データ入力例" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="白紙" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -262,33 +262,13 @@
     <t>必須チェック</t>
   </si>
   <si>
-    <t>年齢が未入力の場合、"年齢が未入力です" 表示
-性別が未入力の場合、"性別が未入力です" 表示
-身長が未入力の場合、"身長が未入力です" 表示
-体重が未入力の場合、"体重が未入力です" 表示
-生活活動代謝が未入力の場合、"生活活動代謝が未入力です" 表示</t>
-  </si>
-  <si>
     <t>型チェック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年齢が半角数字以外の場合、"年齢は半角数字で入力して下さい" 表示
-生活活動代謝が半角数字とピリオド以外の場合、"生活活動代謝は半角数字の少数で入力して下さい" 表示
-</t>
   </si>
   <si>
     <t>上限値チェック</t>
   </si>
   <si>
-    <t>身長が999より大きいの場合、"身長が桁数超過です" 表示
-体重が999より大きいの場合、"体重が桁数超過です" 表示</t>
-  </si>
-  <si>
     <t>下限値チェック</t>
-  </si>
-  <si>
-    <t>身長が0以下の場合、"身長は1以上の値を入力してください" 表示
-体重が0以下の場合、"体重は1以上の値を入力してください" 表示</t>
   </si>
   <si>
     <t>基礎代謝量を計算</t>
@@ -326,6 +306,30 @@
   <si>
     <t>画面キャプチャを更新
 &gt;2.1.カロリー計算画面</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>年齢が未入力の場合、"年齢が未入力です" 表示
+性別が未入力の場合、"性別が未入力です" 表示
+身長が未入力の場合、"身長が未入力です" 表示
+体重が未入力の場合、"体重が未入力です" 表示
+生活活動代謝が未入力の場合、"生活活動代謝が未入力です" 表示</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">年齢が半角数字以外の場合、"年齢は半角数字で入力して下さい" 表示
+生活活動代謝が半角数字とピリオド以外の場合、"生活活動代謝は半角数字の少数で入力して下さい" 表示
+</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>身長が999より大きいの場合、"身長が桁数超過です" 表示
+体重が999より大きいの場合、"体重が桁数超過です" 表示</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>身長が0以下の場合、"身長は1以上の値を入力してください" 表示
+体重が0以下の場合、"体重は1以上の値を入力してください" 表示</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -615,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -769,47 +773,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,7 +1189,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:Z13"/>
+      <selection activeCell="J9" sqref="J9:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1181,7 +1197,7 @@
     <col min="1" max="27" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1212,7 +1228,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1241,692 +1257,692 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="68" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="68" t="s">
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="66"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="67">
+      <c r="B4" s="70">
         <v>43784</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="63" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="66"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="31.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="67">
+      <c r="B5" s="70">
         <v>43869</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="80" t="s">
-        <v>92</v>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="68" t="s">
+        <v>88</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="66"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="65"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="66"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="3"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="65"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="66"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="65"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="66"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="3"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="65"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="66"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="3"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="66"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="3"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="65"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="66"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="3"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="65"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="66"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="16.5">
       <c r="A13" s="3"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="65"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="66"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" ht="16.5">
       <c r="A14" s="3"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="65"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="66"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" ht="16.5">
       <c r="A15" s="3"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="65"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="66"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" ht="16.5">
       <c r="A16" s="3"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="65"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="66"/>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" ht="16.5">
       <c r="A17" s="3"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="65"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="66"/>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" ht="16.5">
       <c r="A18" s="3"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="65"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="66"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" ht="16.5">
       <c r="A19" s="3"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="65"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="66"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" ht="16.5">
       <c r="A20" s="3"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="65"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="66"/>
       <c r="AA20" s="3"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" ht="16.5">
       <c r="A21" s="3"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="65"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="66"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" ht="16.5">
       <c r="A22" s="3"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="65"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="66"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" ht="16.5">
       <c r="A23" s="3"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="65"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="66"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" ht="16.5">
       <c r="A24" s="3"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="65"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="66"/>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" ht="16.5">
       <c r="A25" s="3"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="65"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="66"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" ht="16.5">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1955,7 +1971,7 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" ht="16.5">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1986,18 +2002,42 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="J7:Z7"/>
     <mergeCell ref="J19:Z19"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:I22"/>
@@ -2006,55 +2046,31 @@
     <mergeCell ref="J23:Z23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
     <mergeCell ref="J15:Z15"/>
     <mergeCell ref="J16:Z16"/>
     <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3677,16 +3693,14 @@
   </sheetPr>
   <dimension ref="A1:BK84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BD11" sqref="BD11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="63" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3753,7 +3767,7 @@
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2"/>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:63" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3818,7 +3832,7 @@
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" ht="16.5">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -3885,7 +3899,7 @@
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" ht="16.5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3950,7 +3964,7 @@
       <c r="BJ4" s="3"/>
       <c r="BK4" s="3"/>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" ht="16.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4015,7 +4029,7 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:63" ht="16.5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4080,7 +4094,7 @@
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:63" ht="16.5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4145,7 +4159,7 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3"/>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:63" ht="16.5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4210,7 +4224,7 @@
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3"/>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:63" ht="16.5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4275,7 +4289,7 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="3"/>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" ht="16.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4340,7 +4354,7 @@
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:63" ht="16.5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4405,7 +4419,7 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="3"/>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" ht="16.5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4470,7 +4484,7 @@
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:63" ht="16.5">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4535,7 +4549,7 @@
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:63" ht="16.5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4600,7 +4614,7 @@
       <c r="BJ14" s="3"/>
       <c r="BK14" s="3"/>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:63" ht="16.5">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4665,7 +4679,7 @@
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:63" ht="16.5">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4730,7 +4744,7 @@
       <c r="BJ16" s="3"/>
       <c r="BK16" s="3"/>
     </row>
-    <row r="17" spans="1:63">
+    <row r="17" spans="1:63" ht="16.5">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4795,7 +4809,7 @@
       <c r="BJ17" s="3"/>
       <c r="BK17" s="3"/>
     </row>
-    <row r="18" spans="1:63">
+    <row r="18" spans="1:63" ht="16.5">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4860,7 +4874,7 @@
       <c r="BJ18" s="3"/>
       <c r="BK18" s="3"/>
     </row>
-    <row r="19" spans="1:63">
+    <row r="19" spans="1:63" ht="16.5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4925,7 +4939,7 @@
       <c r="BJ19" s="3"/>
       <c r="BK19" s="3"/>
     </row>
-    <row r="20" spans="1:63">
+    <row r="20" spans="1:63" ht="16.5">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4990,7 +5004,7 @@
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
     </row>
-    <row r="21" spans="1:63">
+    <row r="21" spans="1:63" ht="16.5">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5055,7 +5069,7 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="3"/>
     </row>
-    <row r="22" spans="1:63">
+    <row r="22" spans="1:63" ht="16.5">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5120,7 +5134,7 @@
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
     </row>
-    <row r="23" spans="1:63">
+    <row r="23" spans="1:63" ht="16.5">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5185,7 +5199,7 @@
       <c r="BJ23" s="3"/>
       <c r="BK23" s="3"/>
     </row>
-    <row r="24" spans="1:63">
+    <row r="24" spans="1:63" ht="16.5">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5250,7 +5264,7 @@
       <c r="BJ24" s="3"/>
       <c r="BK24" s="3"/>
     </row>
-    <row r="25" spans="1:63">
+    <row r="25" spans="1:63" ht="16.5">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5315,7 +5329,7 @@
       <c r="BJ25" s="3"/>
       <c r="BK25" s="3"/>
     </row>
-    <row r="26" spans="1:63">
+    <row r="26" spans="1:63" ht="16.5">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5380,7 +5394,7 @@
       <c r="BJ26" s="3"/>
       <c r="BK26" s="3"/>
     </row>
-    <row r="27" spans="1:63">
+    <row r="27" spans="1:63" ht="16.5">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5445,7 +5459,7 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="3"/>
     </row>
-    <row r="28" spans="1:63">
+    <row r="28" spans="1:63" ht="16.5">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5510,7 +5524,7 @@
       <c r="BJ28" s="3"/>
       <c r="BK28" s="3"/>
     </row>
-    <row r="29" spans="1:63">
+    <row r="29" spans="1:63" ht="16.5">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5575,7 +5589,7 @@
       <c r="BJ29" s="3"/>
       <c r="BK29" s="3"/>
     </row>
-    <row r="30" spans="1:63">
+    <row r="30" spans="1:63" ht="16.5">
       <c r="A30" s="3"/>
       <c r="B30" s="5" t="s">
         <v>12</v>
@@ -5642,7 +5656,7 @@
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
     </row>
-    <row r="31" spans="1:63">
+    <row r="31" spans="1:63" ht="16.5">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5707,7 +5721,7 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="3"/>
     </row>
-    <row r="32" spans="1:63">
+    <row r="32" spans="1:63" ht="16.5">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5772,7 +5786,7 @@
       <c r="BJ32" s="3"/>
       <c r="BK32" s="3"/>
     </row>
-    <row r="33" spans="1:63">
+    <row r="33" spans="1:63" ht="16.5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5837,7 +5851,7 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="3"/>
     </row>
-    <row r="34" spans="1:63">
+    <row r="34" spans="1:63" ht="16.5">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5902,7 +5916,7 @@
       <c r="BJ34" s="3"/>
       <c r="BK34" s="3"/>
     </row>
-    <row r="35" spans="1:63">
+    <row r="35" spans="1:63" ht="16.5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5967,7 +5981,7 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="3"/>
     </row>
-    <row r="36" spans="1:63">
+    <row r="36" spans="1:63" ht="16.5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6032,7 +6046,7 @@
       <c r="BJ36" s="3"/>
       <c r="BK36" s="3"/>
     </row>
-    <row r="37" spans="1:63">
+    <row r="37" spans="1:63" ht="16.5">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6097,7 +6111,7 @@
       <c r="BJ37" s="3"/>
       <c r="BK37" s="3"/>
     </row>
-    <row r="38" spans="1:63">
+    <row r="38" spans="1:63" ht="16.5">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6162,7 +6176,7 @@
       <c r="BJ38" s="3"/>
       <c r="BK38" s="3"/>
     </row>
-    <row r="39" spans="1:63">
+    <row r="39" spans="1:63" ht="16.5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6227,7 +6241,7 @@
       <c r="BJ39" s="3"/>
       <c r="BK39" s="3"/>
     </row>
-    <row r="40" spans="1:63">
+    <row r="40" spans="1:63" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6292,7 +6306,7 @@
       <c r="BJ40" s="3"/>
       <c r="BK40" s="3"/>
     </row>
-    <row r="41" spans="1:63">
+    <row r="41" spans="1:63" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6357,7 +6371,7 @@
       <c r="BJ41" s="3"/>
       <c r="BK41" s="3"/>
     </row>
-    <row r="42" spans="1:63">
+    <row r="42" spans="1:63" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6422,7 +6436,7 @@
       <c r="BJ42" s="3"/>
       <c r="BK42" s="3"/>
     </row>
-    <row r="43" spans="1:63">
+    <row r="43" spans="1:63" ht="16.5">
       <c r="A43" s="3"/>
       <c r="B43" s="5" t="s">
         <v>42</v>
@@ -6489,7 +6503,7 @@
       <c r="BJ43" s="3"/>
       <c r="BK43" s="3"/>
     </row>
-    <row r="44" spans="1:63">
+    <row r="44" spans="1:63" ht="16.5">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6554,7 +6568,7 @@
       <c r="BJ44" s="3"/>
       <c r="BK44" s="3"/>
     </row>
-    <row r="45" spans="1:63">
+    <row r="45" spans="1:63" ht="16.5">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -6619,7 +6633,7 @@
       <c r="BJ45" s="3"/>
       <c r="BK45" s="3"/>
     </row>
-    <row r="46" spans="1:63">
+    <row r="46" spans="1:63" ht="16.5">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6684,7 +6698,7 @@
       <c r="BJ46" s="3"/>
       <c r="BK46" s="3"/>
     </row>
-    <row r="47" spans="1:63">
+    <row r="47" spans="1:63" ht="16.5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -6749,7 +6763,7 @@
       <c r="BJ47" s="3"/>
       <c r="BK47" s="3"/>
     </row>
-    <row r="48" spans="1:63">
+    <row r="48" spans="1:63" ht="16.5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -6814,7 +6828,7 @@
       <c r="BJ48" s="3"/>
       <c r="BK48" s="3"/>
     </row>
-    <row r="49" spans="1:63">
+    <row r="49" spans="1:63" ht="16.5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -6879,7 +6893,7 @@
       <c r="BJ49" s="3"/>
       <c r="BK49" s="3"/>
     </row>
-    <row r="50" spans="1:63">
+    <row r="50" spans="1:63" ht="16.5">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -6944,7 +6958,7 @@
       <c r="BJ50" s="3"/>
       <c r="BK50" s="3"/>
     </row>
-    <row r="51" spans="1:63">
+    <row r="51" spans="1:63" ht="16.5">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -7009,7 +7023,7 @@
       <c r="BJ51" s="3"/>
       <c r="BK51" s="3"/>
     </row>
-    <row r="52" spans="1:63">
+    <row r="52" spans="1:63" ht="16.5">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -7141,7 +7155,7 @@
       <c r="BJ53" s="9"/>
       <c r="BK53" s="9"/>
     </row>
-    <row r="54" spans="1:63">
+    <row r="54" spans="1:63" ht="16.5">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -7206,7 +7220,7 @@
       <c r="BJ54" s="3"/>
       <c r="BK54" s="3"/>
     </row>
-    <row r="55" spans="1:63" outlineLevel="1">
+    <row r="55" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A55" s="22"/>
       <c r="B55" s="23" t="s">
         <v>49</v>
@@ -7285,7 +7299,7 @@
       <c r="BJ55" s="31"/>
       <c r="BK55" s="31"/>
     </row>
-    <row r="56" spans="1:63" outlineLevel="1">
+    <row r="56" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A56" s="22"/>
       <c r="B56" s="32">
         <f t="shared" ref="B56:B62" si="0">ROW()-55</f>
@@ -7302,33 +7316,33 @@
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
       <c r="K56" s="35"/>
-      <c r="L56" s="73" t="s">
+      <c r="L56" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="M56" s="64"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="64"/>
-      <c r="Q56" s="65"/>
-      <c r="R56" s="73" t="s">
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="66"/>
+      <c r="R56" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="S56" s="64"/>
-      <c r="T56" s="64"/>
-      <c r="U56" s="64"/>
-      <c r="V56" s="64"/>
-      <c r="W56" s="65"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="65"/>
+      <c r="V56" s="65"/>
+      <c r="W56" s="66"/>
       <c r="X56" s="33"/>
       <c r="Y56" s="34"/>
       <c r="Z56" s="34"/>
       <c r="AA56" s="36"/>
       <c r="AB56" s="36"/>
       <c r="AC56" s="37"/>
-      <c r="AD56" s="74" t="s">
+      <c r="AD56" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="AE56" s="70"/>
-      <c r="AF56" s="71"/>
+      <c r="AE56" s="72"/>
+      <c r="AF56" s="73"/>
       <c r="AG56" s="36"/>
       <c r="AH56" s="36"/>
       <c r="AI56" s="36"/>
@@ -7361,7 +7375,7 @@
       <c r="BJ56" s="31"/>
       <c r="BK56" s="31"/>
     </row>
-    <row r="57" spans="1:63" outlineLevel="1">
+    <row r="57" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A57" s="22"/>
       <c r="B57" s="32">
         <f t="shared" si="0"/>
@@ -7378,31 +7392,31 @@
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
       <c r="K57" s="35"/>
-      <c r="L57" s="73" t="s">
+      <c r="L57" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="M57" s="64"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="64"/>
-      <c r="P57" s="64"/>
-      <c r="Q57" s="65"/>
-      <c r="R57" s="73"/>
-      <c r="S57" s="64"/>
-      <c r="T57" s="64"/>
-      <c r="U57" s="64"/>
-      <c r="V57" s="64"/>
-      <c r="W57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="66"/>
+      <c r="R57" s="74"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="65"/>
+      <c r="V57" s="65"/>
+      <c r="W57" s="66"/>
       <c r="X57" s="33"/>
       <c r="Y57" s="34"/>
       <c r="Z57" s="34"/>
       <c r="AA57" s="36"/>
       <c r="AB57" s="36"/>
       <c r="AC57" s="37"/>
-      <c r="AD57" s="74" t="s">
+      <c r="AD57" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="AE57" s="70"/>
-      <c r="AF57" s="71"/>
+      <c r="AE57" s="72"/>
+      <c r="AF57" s="73"/>
       <c r="AG57" s="36"/>
       <c r="AH57" s="36"/>
       <c r="AI57" s="36"/>
@@ -7435,7 +7449,7 @@
       <c r="BJ57" s="31"/>
       <c r="BK57" s="31"/>
     </row>
-    <row r="58" spans="1:63" outlineLevel="1">
+    <row r="58" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A58" s="22"/>
       <c r="B58" s="32">
         <f t="shared" si="0"/>
@@ -7452,33 +7466,33 @@
       <c r="I58" s="34"/>
       <c r="J58" s="34"/>
       <c r="K58" s="35"/>
-      <c r="L58" s="73" t="s">
+      <c r="L58" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="64"/>
-      <c r="Q58" s="65"/>
-      <c r="R58" s="73" t="s">
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="66"/>
+      <c r="R58" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="S58" s="64"/>
-      <c r="T58" s="64"/>
-      <c r="U58" s="64"/>
-      <c r="V58" s="64"/>
-      <c r="W58" s="65"/>
+      <c r="S58" s="65"/>
+      <c r="T58" s="65"/>
+      <c r="U58" s="65"/>
+      <c r="V58" s="65"/>
+      <c r="W58" s="66"/>
       <c r="X58" s="34"/>
       <c r="Y58" s="34"/>
       <c r="Z58" s="34"/>
       <c r="AA58" s="36"/>
       <c r="AB58" s="36"/>
       <c r="AC58" s="37"/>
-      <c r="AD58" s="74" t="s">
+      <c r="AD58" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="AE58" s="70"/>
-      <c r="AF58" s="71"/>
+      <c r="AE58" s="72"/>
+      <c r="AF58" s="73"/>
       <c r="AG58" s="36"/>
       <c r="AH58" s="36"/>
       <c r="AI58" s="36"/>
@@ -7511,7 +7525,7 @@
       <c r="BJ58" s="31"/>
       <c r="BK58" s="31"/>
     </row>
-    <row r="59" spans="1:63" outlineLevel="1">
+    <row r="59" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A59" s="22"/>
       <c r="B59" s="32">
         <f t="shared" si="0"/>
@@ -7528,33 +7542,33 @@
       <c r="I59" s="34"/>
       <c r="J59" s="34"/>
       <c r="K59" s="35"/>
-      <c r="L59" s="73" t="s">
+      <c r="L59" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="65"/>
-      <c r="R59" s="73" t="s">
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="66"/>
+      <c r="R59" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="S59" s="64"/>
-      <c r="T59" s="64"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="64"/>
-      <c r="W59" s="65"/>
+      <c r="S59" s="65"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="65"/>
+      <c r="V59" s="65"/>
+      <c r="W59" s="66"/>
       <c r="X59" s="34"/>
       <c r="Y59" s="34"/>
       <c r="Z59" s="34"/>
       <c r="AA59" s="36"/>
       <c r="AB59" s="36"/>
       <c r="AC59" s="37"/>
-      <c r="AD59" s="74" t="s">
+      <c r="AD59" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="AE59" s="70"/>
-      <c r="AF59" s="71"/>
+      <c r="AE59" s="72"/>
+      <c r="AF59" s="73"/>
       <c r="AG59" s="36"/>
       <c r="AH59" s="36"/>
       <c r="AI59" s="36"/>
@@ -7587,7 +7601,7 @@
       <c r="BJ59" s="31"/>
       <c r="BK59" s="31"/>
     </row>
-    <row r="60" spans="1:63" outlineLevel="1">
+    <row r="60" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A60" s="22"/>
       <c r="B60" s="38">
         <f t="shared" si="0"/>
@@ -7604,33 +7618,33 @@
       <c r="I60" s="40"/>
       <c r="J60" s="40"/>
       <c r="K60" s="41"/>
-      <c r="L60" s="73" t="s">
+      <c r="L60" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="M60" s="64"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="64"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="73" t="s">
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="66"/>
+      <c r="R60" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="S60" s="64"/>
-      <c r="T60" s="64"/>
-      <c r="U60" s="64"/>
-      <c r="V60" s="64"/>
-      <c r="W60" s="65"/>
+      <c r="S60" s="65"/>
+      <c r="T60" s="65"/>
+      <c r="U60" s="65"/>
+      <c r="V60" s="65"/>
+      <c r="W60" s="66"/>
       <c r="X60" s="40"/>
       <c r="Y60" s="40"/>
       <c r="Z60" s="40"/>
       <c r="AA60" s="42"/>
       <c r="AB60" s="42"/>
       <c r="AC60" s="43"/>
-      <c r="AD60" s="74" t="s">
+      <c r="AD60" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="AE60" s="70"/>
-      <c r="AF60" s="71"/>
+      <c r="AE60" s="72"/>
+      <c r="AF60" s="73"/>
       <c r="AG60" s="42"/>
       <c r="AH60" s="42"/>
       <c r="AI60" s="42"/>
@@ -7663,7 +7677,7 @@
       <c r="BJ60" s="31"/>
       <c r="BK60" s="31"/>
     </row>
-    <row r="61" spans="1:63" outlineLevel="1">
+    <row r="61" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A61" s="22"/>
       <c r="B61" s="32">
         <f t="shared" si="0"/>
@@ -7680,29 +7694,29 @@
       <c r="I61" s="34"/>
       <c r="J61" s="34"/>
       <c r="K61" s="35"/>
-      <c r="L61" s="73" t="s">
+      <c r="L61" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="M61" s="64"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="64"/>
-      <c r="P61" s="64"/>
-      <c r="Q61" s="65"/>
-      <c r="R61" s="73"/>
-      <c r="S61" s="64"/>
-      <c r="T61" s="64"/>
-      <c r="U61" s="64"/>
-      <c r="V61" s="64"/>
-      <c r="W61" s="65"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="65"/>
+      <c r="O61" s="65"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="74"/>
+      <c r="S61" s="65"/>
+      <c r="T61" s="65"/>
+      <c r="U61" s="65"/>
+      <c r="V61" s="65"/>
+      <c r="W61" s="66"/>
       <c r="X61" s="34"/>
       <c r="Y61" s="34"/>
       <c r="Z61" s="34"/>
       <c r="AA61" s="36"/>
       <c r="AB61" s="36"/>
       <c r="AC61" s="37"/>
-      <c r="AD61" s="74"/>
-      <c r="AE61" s="70"/>
-      <c r="AF61" s="71"/>
+      <c r="AD61" s="71"/>
+      <c r="AE61" s="72"/>
+      <c r="AF61" s="73"/>
       <c r="AG61" s="36"/>
       <c r="AH61" s="36"/>
       <c r="AI61" s="36"/>
@@ -7735,7 +7749,7 @@
       <c r="BJ61" s="31"/>
       <c r="BK61" s="31"/>
     </row>
-    <row r="62" spans="1:63" outlineLevel="1">
+    <row r="62" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A62" s="22"/>
       <c r="B62" s="32">
         <f t="shared" si="0"/>
@@ -7752,29 +7766,29 @@
       <c r="I62" s="34"/>
       <c r="J62" s="34"/>
       <c r="K62" s="35"/>
-      <c r="L62" s="73" t="s">
+      <c r="L62" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
-      <c r="P62" s="64"/>
-      <c r="Q62" s="65"/>
-      <c r="R62" s="73"/>
-      <c r="S62" s="64"/>
-      <c r="T62" s="64"/>
-      <c r="U62" s="64"/>
-      <c r="V62" s="64"/>
-      <c r="W62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="66"/>
+      <c r="R62" s="74"/>
+      <c r="S62" s="65"/>
+      <c r="T62" s="65"/>
+      <c r="U62" s="65"/>
+      <c r="V62" s="65"/>
+      <c r="W62" s="66"/>
       <c r="X62" s="34"/>
       <c r="Y62" s="34"/>
       <c r="Z62" s="34"/>
       <c r="AA62" s="36"/>
       <c r="AB62" s="36"/>
       <c r="AC62" s="37"/>
-      <c r="AD62" s="74"/>
-      <c r="AE62" s="70"/>
-      <c r="AF62" s="71"/>
+      <c r="AD62" s="71"/>
+      <c r="AE62" s="72"/>
+      <c r="AF62" s="73"/>
       <c r="AG62" s="36"/>
       <c r="AH62" s="36"/>
       <c r="AI62" s="36"/>
@@ -7807,7 +7821,7 @@
       <c r="BJ62" s="31"/>
       <c r="BK62" s="31"/>
     </row>
-    <row r="63" spans="1:63">
+    <row r="63" spans="1:63" ht="16.5">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7939,7 +7953,7 @@
       <c r="BJ64" s="9"/>
       <c r="BK64" s="9"/>
     </row>
-    <row r="65" spans="1:63">
+    <row r="65" spans="1:63" ht="16.5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -8081,7 +8095,7 @@
       <c r="BJ66" s="11"/>
       <c r="BK66" s="11"/>
     </row>
-    <row r="67" spans="1:63" outlineLevel="1">
+    <row r="67" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A67" s="52"/>
       <c r="B67" s="32">
         <f t="shared" ref="B67:B77" si="1">ROW()-66</f>
@@ -8134,24 +8148,24 @@
       <c r="AM67" s="34"/>
       <c r="AN67" s="34"/>
       <c r="AO67" s="35"/>
-      <c r="AP67" s="55" t="s">
+      <c r="AP67" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="AQ67" s="34"/>
-      <c r="AR67" s="34"/>
-      <c r="AS67" s="34"/>
-      <c r="AT67" s="34"/>
-      <c r="AU67" s="34"/>
-      <c r="AV67" s="34"/>
-      <c r="AW67" s="34"/>
-      <c r="AX67" s="34"/>
-      <c r="AY67" s="34"/>
-      <c r="AZ67" s="34"/>
-      <c r="BA67" s="34"/>
-      <c r="BB67" s="34"/>
-      <c r="BC67" s="34"/>
-      <c r="BD67" s="34"/>
-      <c r="BE67" s="35"/>
+      <c r="AQ67" s="83"/>
+      <c r="AR67" s="83"/>
+      <c r="AS67" s="83"/>
+      <c r="AT67" s="83"/>
+      <c r="AU67" s="83"/>
+      <c r="AV67" s="83"/>
+      <c r="AW67" s="83"/>
+      <c r="AX67" s="83"/>
+      <c r="AY67" s="83"/>
+      <c r="AZ67" s="83"/>
+      <c r="BA67" s="83"/>
+      <c r="BB67" s="83"/>
+      <c r="BC67" s="83"/>
+      <c r="BD67" s="83"/>
+      <c r="BE67" s="84"/>
       <c r="BF67" s="31"/>
       <c r="BG67" s="31"/>
       <c r="BH67" s="31"/>
@@ -8159,7 +8173,7 @@
       <c r="BJ67" s="31"/>
       <c r="BK67" s="31"/>
     </row>
-    <row r="68" spans="1:63" outlineLevel="1">
+    <row r="68" spans="1:63" ht="82.5" customHeight="1" outlineLevel="1">
       <c r="A68" s="52"/>
       <c r="B68" s="32">
         <f t="shared" si="1"/>
@@ -8212,24 +8226,24 @@
       <c r="AM68" s="34"/>
       <c r="AN68" s="34"/>
       <c r="AO68" s="35"/>
-      <c r="AP68" s="69" t="s">
-        <v>74</v>
+      <c r="AP68" s="75" t="s">
+        <v>89</v>
       </c>
-      <c r="AQ68" s="70"/>
-      <c r="AR68" s="70"/>
-      <c r="AS68" s="70"/>
-      <c r="AT68" s="70"/>
-      <c r="AU68" s="70"/>
-      <c r="AV68" s="70"/>
-      <c r="AW68" s="70"/>
-      <c r="AX68" s="70"/>
-      <c r="AY68" s="70"/>
-      <c r="AZ68" s="70"/>
-      <c r="BA68" s="70"/>
-      <c r="BB68" s="70"/>
-      <c r="BC68" s="70"/>
-      <c r="BD68" s="70"/>
-      <c r="BE68" s="71"/>
+      <c r="AQ68" s="81"/>
+      <c r="AR68" s="81"/>
+      <c r="AS68" s="81"/>
+      <c r="AT68" s="81"/>
+      <c r="AU68" s="81"/>
+      <c r="AV68" s="81"/>
+      <c r="AW68" s="81"/>
+      <c r="AX68" s="81"/>
+      <c r="AY68" s="81"/>
+      <c r="AZ68" s="81"/>
+      <c r="BA68" s="81"/>
+      <c r="BB68" s="81"/>
+      <c r="BC68" s="81"/>
+      <c r="BD68" s="81"/>
+      <c r="BE68" s="82"/>
       <c r="BF68" s="31"/>
       <c r="BG68" s="31"/>
       <c r="BH68" s="31"/>
@@ -8237,7 +8251,7 @@
       <c r="BJ68" s="31"/>
       <c r="BK68" s="31"/>
     </row>
-    <row r="69" spans="1:63" outlineLevel="1">
+    <row r="69" spans="1:63" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="A69" s="52"/>
       <c r="B69" s="32">
         <f t="shared" si="1"/>
@@ -8275,7 +8289,7 @@
       <c r="AF69" s="58"/>
       <c r="AG69" s="58"/>
       <c r="AH69" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI69" s="34"/>
       <c r="AJ69" s="34"/>
@@ -8284,24 +8298,24 @@
       <c r="AM69" s="34"/>
       <c r="AN69" s="34"/>
       <c r="AO69" s="35"/>
-      <c r="AP69" s="72" t="s">
-        <v>76</v>
+      <c r="AP69" s="75" t="s">
+        <v>90</v>
       </c>
-      <c r="AQ69" s="70"/>
-      <c r="AR69" s="70"/>
-      <c r="AS69" s="70"/>
-      <c r="AT69" s="70"/>
-      <c r="AU69" s="70"/>
-      <c r="AV69" s="70"/>
-      <c r="AW69" s="70"/>
-      <c r="AX69" s="70"/>
-      <c r="AY69" s="70"/>
-      <c r="AZ69" s="70"/>
-      <c r="BA69" s="70"/>
-      <c r="BB69" s="70"/>
-      <c r="BC69" s="70"/>
-      <c r="BD69" s="70"/>
-      <c r="BE69" s="71"/>
+      <c r="AQ69" s="81"/>
+      <c r="AR69" s="81"/>
+      <c r="AS69" s="81"/>
+      <c r="AT69" s="81"/>
+      <c r="AU69" s="81"/>
+      <c r="AV69" s="81"/>
+      <c r="AW69" s="81"/>
+      <c r="AX69" s="81"/>
+      <c r="AY69" s="81"/>
+      <c r="AZ69" s="81"/>
+      <c r="BA69" s="81"/>
+      <c r="BB69" s="81"/>
+      <c r="BC69" s="81"/>
+      <c r="BD69" s="81"/>
+      <c r="BE69" s="82"/>
       <c r="BF69" s="31"/>
       <c r="BG69" s="31"/>
       <c r="BH69" s="31"/>
@@ -8309,7 +8323,7 @@
       <c r="BJ69" s="31"/>
       <c r="BK69" s="31"/>
     </row>
-    <row r="70" spans="1:63" outlineLevel="1">
+    <row r="70" spans="1:63" ht="33.75" customHeight="1" outlineLevel="1">
       <c r="A70" s="52"/>
       <c r="B70" s="32">
         <f t="shared" si="1"/>
@@ -8347,7 +8361,7 @@
       <c r="AF70" s="58"/>
       <c r="AG70" s="58"/>
       <c r="AH70" s="55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI70" s="34"/>
       <c r="AJ70" s="34"/>
@@ -8356,24 +8370,24 @@
       <c r="AM70" s="34"/>
       <c r="AN70" s="34"/>
       <c r="AO70" s="35"/>
-      <c r="AP70" s="69" t="s">
-        <v>78</v>
+      <c r="AP70" s="75" t="s">
+        <v>91</v>
       </c>
-      <c r="AQ70" s="70"/>
-      <c r="AR70" s="70"/>
-      <c r="AS70" s="70"/>
-      <c r="AT70" s="70"/>
-      <c r="AU70" s="70"/>
-      <c r="AV70" s="70"/>
-      <c r="AW70" s="70"/>
-      <c r="AX70" s="70"/>
-      <c r="AY70" s="70"/>
-      <c r="AZ70" s="70"/>
-      <c r="BA70" s="70"/>
-      <c r="BB70" s="70"/>
-      <c r="BC70" s="70"/>
-      <c r="BD70" s="70"/>
-      <c r="BE70" s="71"/>
+      <c r="AQ70" s="81"/>
+      <c r="AR70" s="81"/>
+      <c r="AS70" s="81"/>
+      <c r="AT70" s="81"/>
+      <c r="AU70" s="81"/>
+      <c r="AV70" s="81"/>
+      <c r="AW70" s="81"/>
+      <c r="AX70" s="81"/>
+      <c r="AY70" s="81"/>
+      <c r="AZ70" s="81"/>
+      <c r="BA70" s="81"/>
+      <c r="BB70" s="81"/>
+      <c r="BC70" s="81"/>
+      <c r="BD70" s="81"/>
+      <c r="BE70" s="82"/>
       <c r="BF70" s="31"/>
       <c r="BG70" s="31"/>
       <c r="BH70" s="31"/>
@@ -8381,7 +8395,7 @@
       <c r="BJ70" s="31"/>
       <c r="BK70" s="31"/>
     </row>
-    <row r="71" spans="1:63" outlineLevel="1">
+    <row r="71" spans="1:63" ht="33.75" customHeight="1" outlineLevel="1">
       <c r="A71" s="52"/>
       <c r="B71" s="32">
         <f t="shared" si="1"/>
@@ -8419,7 +8433,7 @@
       <c r="AF71" s="34"/>
       <c r="AG71" s="34"/>
       <c r="AH71" s="55" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AI71" s="34"/>
       <c r="AJ71" s="34"/>
@@ -8428,24 +8442,24 @@
       <c r="AM71" s="34"/>
       <c r="AN71" s="34"/>
       <c r="AO71" s="35"/>
-      <c r="AP71" s="69" t="s">
-        <v>80</v>
+      <c r="AP71" s="75" t="s">
+        <v>92</v>
       </c>
-      <c r="AQ71" s="70"/>
-      <c r="AR71" s="70"/>
-      <c r="AS71" s="70"/>
-      <c r="AT71" s="70"/>
-      <c r="AU71" s="70"/>
-      <c r="AV71" s="70"/>
-      <c r="AW71" s="70"/>
-      <c r="AX71" s="70"/>
-      <c r="AY71" s="70"/>
-      <c r="AZ71" s="70"/>
-      <c r="BA71" s="70"/>
-      <c r="BB71" s="70"/>
-      <c r="BC71" s="70"/>
-      <c r="BD71" s="70"/>
-      <c r="BE71" s="71"/>
+      <c r="AQ71" s="81"/>
+      <c r="AR71" s="81"/>
+      <c r="AS71" s="81"/>
+      <c r="AT71" s="81"/>
+      <c r="AU71" s="81"/>
+      <c r="AV71" s="81"/>
+      <c r="AW71" s="81"/>
+      <c r="AX71" s="81"/>
+      <c r="AY71" s="81"/>
+      <c r="AZ71" s="81"/>
+      <c r="BA71" s="81"/>
+      <c r="BB71" s="81"/>
+      <c r="BC71" s="81"/>
+      <c r="BD71" s="81"/>
+      <c r="BE71" s="82"/>
       <c r="BF71" s="31"/>
       <c r="BG71" s="31"/>
       <c r="BH71" s="31"/>
@@ -8453,7 +8467,7 @@
       <c r="BJ71" s="31"/>
       <c r="BK71" s="31"/>
     </row>
-    <row r="72" spans="1:63" outlineLevel="1">
+    <row r="72" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A72" s="52"/>
       <c r="B72" s="32">
         <f t="shared" si="1"/>
@@ -8467,7 +8481,7 @@
       <c r="H72" s="58"/>
       <c r="I72" s="52"/>
       <c r="J72" s="59" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K72" s="58"/>
       <c r="L72" s="58"/>
@@ -8477,7 +8491,7 @@
       <c r="P72" s="58"/>
       <c r="Q72" s="52"/>
       <c r="R72" s="59" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S72" s="34"/>
       <c r="T72" s="34"/>
@@ -8504,24 +8518,24 @@
       <c r="AM72" s="34"/>
       <c r="AN72" s="34"/>
       <c r="AO72" s="35"/>
-      <c r="AP72" s="55" t="s">
+      <c r="AP72" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="AQ72" s="34"/>
-      <c r="AR72" s="34"/>
-      <c r="AS72" s="34"/>
-      <c r="AT72" s="34"/>
-      <c r="AU72" s="34"/>
-      <c r="AV72" s="34"/>
-      <c r="AW72" s="34"/>
-      <c r="AX72" s="34"/>
-      <c r="AY72" s="34"/>
-      <c r="AZ72" s="34"/>
-      <c r="BA72" s="34"/>
-      <c r="BB72" s="34"/>
-      <c r="BC72" s="34"/>
-      <c r="BD72" s="34"/>
-      <c r="BE72" s="35"/>
+      <c r="AQ72" s="83"/>
+      <c r="AR72" s="83"/>
+      <c r="AS72" s="83"/>
+      <c r="AT72" s="83"/>
+      <c r="AU72" s="83"/>
+      <c r="AV72" s="83"/>
+      <c r="AW72" s="83"/>
+      <c r="AX72" s="83"/>
+      <c r="AY72" s="83"/>
+      <c r="AZ72" s="83"/>
+      <c r="BA72" s="83"/>
+      <c r="BB72" s="83"/>
+      <c r="BC72" s="83"/>
+      <c r="BD72" s="83"/>
+      <c r="BE72" s="84"/>
       <c r="BF72" s="31"/>
       <c r="BG72" s="31"/>
       <c r="BH72" s="31"/>
@@ -8529,7 +8543,7 @@
       <c r="BJ72" s="31"/>
       <c r="BK72" s="31"/>
     </row>
-    <row r="73" spans="1:63" outlineLevel="1">
+    <row r="73" spans="1:63" ht="33.75" customHeight="1" outlineLevel="1">
       <c r="A73" s="52"/>
       <c r="B73" s="32">
         <f t="shared" si="1"/>
@@ -8551,23 +8565,23 @@
       <c r="P73" s="58"/>
       <c r="Q73" s="52"/>
       <c r="R73" s="33"/>
-      <c r="S73" s="72" t="s">
-        <v>83</v>
+      <c r="S73" s="75" t="s">
+        <v>79</v>
       </c>
-      <c r="T73" s="70"/>
-      <c r="U73" s="70"/>
-      <c r="V73" s="70"/>
-      <c r="W73" s="70"/>
-      <c r="X73" s="70"/>
-      <c r="Y73" s="70"/>
-      <c r="Z73" s="70"/>
-      <c r="AA73" s="70"/>
-      <c r="AB73" s="70"/>
-      <c r="AC73" s="70"/>
-      <c r="AD73" s="70"/>
-      <c r="AE73" s="70"/>
-      <c r="AF73" s="70"/>
-      <c r="AG73" s="70"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
+      <c r="V73" s="72"/>
+      <c r="W73" s="72"/>
+      <c r="X73" s="72"/>
+      <c r="Y73" s="72"/>
+      <c r="Z73" s="72"/>
+      <c r="AA73" s="72"/>
+      <c r="AB73" s="72"/>
+      <c r="AC73" s="72"/>
+      <c r="AD73" s="72"/>
+      <c r="AE73" s="72"/>
+      <c r="AF73" s="72"/>
+      <c r="AG73" s="72"/>
       <c r="AH73" s="55" t="s">
         <v>70</v>
       </c>
@@ -8578,24 +8592,24 @@
       <c r="AM73" s="34"/>
       <c r="AN73" s="34"/>
       <c r="AO73" s="35"/>
-      <c r="AP73" s="55" t="s">
+      <c r="AP73" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="AQ73" s="34"/>
-      <c r="AR73" s="34"/>
-      <c r="AS73" s="34"/>
-      <c r="AT73" s="34"/>
-      <c r="AU73" s="34"/>
-      <c r="AV73" s="34"/>
-      <c r="AW73" s="34"/>
-      <c r="AX73" s="34"/>
-      <c r="AY73" s="34"/>
-      <c r="AZ73" s="34"/>
-      <c r="BA73" s="34"/>
-      <c r="BB73" s="34"/>
-      <c r="BC73" s="34"/>
-      <c r="BD73" s="34"/>
-      <c r="BE73" s="35"/>
+      <c r="AQ73" s="83"/>
+      <c r="AR73" s="83"/>
+      <c r="AS73" s="83"/>
+      <c r="AT73" s="83"/>
+      <c r="AU73" s="83"/>
+      <c r="AV73" s="83"/>
+      <c r="AW73" s="83"/>
+      <c r="AX73" s="83"/>
+      <c r="AY73" s="83"/>
+      <c r="AZ73" s="83"/>
+      <c r="BA73" s="83"/>
+      <c r="BB73" s="83"/>
+      <c r="BC73" s="83"/>
+      <c r="BD73" s="83"/>
+      <c r="BE73" s="84"/>
       <c r="BF73" s="31"/>
       <c r="BG73" s="31"/>
       <c r="BH73" s="31"/>
@@ -8603,7 +8617,7 @@
       <c r="BJ73" s="31"/>
       <c r="BK73" s="31"/>
     </row>
-    <row r="74" spans="1:63" outlineLevel="1">
+    <row r="74" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A74" s="52"/>
       <c r="B74" s="32">
         <f t="shared" si="1"/>
@@ -8625,7 +8639,7 @@
       <c r="P74" s="58"/>
       <c r="Q74" s="52"/>
       <c r="R74" s="59" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S74" s="34"/>
       <c r="T74" s="34"/>
@@ -8652,24 +8666,24 @@
       <c r="AM74" s="34"/>
       <c r="AN74" s="34"/>
       <c r="AO74" s="35"/>
-      <c r="AP74" s="55" t="s">
+      <c r="AP74" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="AQ74" s="34"/>
-      <c r="AR74" s="34"/>
-      <c r="AS74" s="34"/>
-      <c r="AT74" s="34"/>
-      <c r="AU74" s="34"/>
-      <c r="AV74" s="34"/>
-      <c r="AW74" s="34"/>
-      <c r="AX74" s="34"/>
-      <c r="AY74" s="34"/>
-      <c r="AZ74" s="34"/>
-      <c r="BA74" s="34"/>
-      <c r="BB74" s="34"/>
-      <c r="BC74" s="34"/>
-      <c r="BD74" s="34"/>
-      <c r="BE74" s="35"/>
+      <c r="AQ74" s="83"/>
+      <c r="AR74" s="83"/>
+      <c r="AS74" s="83"/>
+      <c r="AT74" s="83"/>
+      <c r="AU74" s="83"/>
+      <c r="AV74" s="83"/>
+      <c r="AW74" s="83"/>
+      <c r="AX74" s="83"/>
+      <c r="AY74" s="83"/>
+      <c r="AZ74" s="83"/>
+      <c r="BA74" s="83"/>
+      <c r="BB74" s="83"/>
+      <c r="BC74" s="83"/>
+      <c r="BD74" s="83"/>
+      <c r="BE74" s="84"/>
       <c r="BF74" s="31"/>
       <c r="BG74" s="31"/>
       <c r="BH74" s="31"/>
@@ -8677,7 +8691,7 @@
       <c r="BJ74" s="31"/>
       <c r="BK74" s="31"/>
     </row>
-    <row r="75" spans="1:63" outlineLevel="1">
+    <row r="75" spans="1:63" ht="33" customHeight="1" outlineLevel="1">
       <c r="A75" s="52"/>
       <c r="B75" s="32">
         <f t="shared" si="1"/>
@@ -8699,23 +8713,23 @@
       <c r="P75" s="34"/>
       <c r="Q75" s="35"/>
       <c r="R75" s="33"/>
-      <c r="S75" s="72" t="s">
-        <v>85</v>
+      <c r="S75" s="75" t="s">
+        <v>81</v>
       </c>
-      <c r="T75" s="70"/>
-      <c r="U75" s="70"/>
-      <c r="V75" s="70"/>
-      <c r="W75" s="70"/>
-      <c r="X75" s="70"/>
-      <c r="Y75" s="70"/>
-      <c r="Z75" s="70"/>
-      <c r="AA75" s="70"/>
-      <c r="AB75" s="70"/>
-      <c r="AC75" s="70"/>
-      <c r="AD75" s="70"/>
-      <c r="AE75" s="70"/>
-      <c r="AF75" s="70"/>
-      <c r="AG75" s="70"/>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
+      <c r="V75" s="72"/>
+      <c r="W75" s="72"/>
+      <c r="X75" s="72"/>
+      <c r="Y75" s="72"/>
+      <c r="Z75" s="72"/>
+      <c r="AA75" s="72"/>
+      <c r="AB75" s="72"/>
+      <c r="AC75" s="72"/>
+      <c r="AD75" s="72"/>
+      <c r="AE75" s="72"/>
+      <c r="AF75" s="72"/>
+      <c r="AG75" s="72"/>
       <c r="AH75" s="55" t="s">
         <v>70</v>
       </c>
@@ -8726,24 +8740,24 @@
       <c r="AM75" s="34"/>
       <c r="AN75" s="34"/>
       <c r="AO75" s="35"/>
-      <c r="AP75" s="55" t="s">
+      <c r="AP75" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="AQ75" s="34"/>
-      <c r="AR75" s="34"/>
-      <c r="AS75" s="34"/>
-      <c r="AT75" s="34"/>
-      <c r="AU75" s="34"/>
-      <c r="AV75" s="34"/>
-      <c r="AW75" s="34"/>
-      <c r="AX75" s="34"/>
-      <c r="AY75" s="34"/>
-      <c r="AZ75" s="34"/>
-      <c r="BA75" s="34"/>
-      <c r="BB75" s="34"/>
-      <c r="BC75" s="34"/>
-      <c r="BD75" s="34"/>
-      <c r="BE75" s="35"/>
+      <c r="AQ75" s="83"/>
+      <c r="AR75" s="83"/>
+      <c r="AS75" s="83"/>
+      <c r="AT75" s="83"/>
+      <c r="AU75" s="83"/>
+      <c r="AV75" s="83"/>
+      <c r="AW75" s="83"/>
+      <c r="AX75" s="83"/>
+      <c r="AY75" s="83"/>
+      <c r="AZ75" s="83"/>
+      <c r="BA75" s="83"/>
+      <c r="BB75" s="83"/>
+      <c r="BC75" s="83"/>
+      <c r="BD75" s="83"/>
+      <c r="BE75" s="84"/>
       <c r="BF75" s="31"/>
       <c r="BG75" s="31"/>
       <c r="BH75" s="31"/>
@@ -8751,7 +8765,7 @@
       <c r="BJ75" s="31"/>
       <c r="BK75" s="31"/>
     </row>
-    <row r="76" spans="1:63" outlineLevel="1">
+    <row r="76" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A76" s="52"/>
       <c r="B76" s="32">
         <f t="shared" si="1"/>
@@ -8765,7 +8779,7 @@
       <c r="H76" s="34"/>
       <c r="I76" s="35"/>
       <c r="J76" s="33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K76" s="34"/>
       <c r="L76" s="34"/>
@@ -8775,7 +8789,7 @@
       <c r="P76" s="34"/>
       <c r="Q76" s="35"/>
       <c r="R76" s="33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="S76" s="34"/>
       <c r="T76" s="34"/>
@@ -8802,24 +8816,24 @@
       <c r="AM76" s="34"/>
       <c r="AN76" s="34"/>
       <c r="AO76" s="35"/>
-      <c r="AP76" s="55" t="s">
+      <c r="AP76" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="AQ76" s="34"/>
-      <c r="AR76" s="34"/>
-      <c r="AS76" s="34"/>
-      <c r="AT76" s="34"/>
-      <c r="AU76" s="34"/>
-      <c r="AV76" s="34"/>
-      <c r="AW76" s="34"/>
-      <c r="AX76" s="34"/>
-      <c r="AY76" s="34"/>
-      <c r="AZ76" s="34"/>
-      <c r="BA76" s="34"/>
-      <c r="BB76" s="34"/>
-      <c r="BC76" s="34"/>
-      <c r="BD76" s="34"/>
-      <c r="BE76" s="35"/>
+      <c r="AQ76" s="83"/>
+      <c r="AR76" s="83"/>
+      <c r="AS76" s="83"/>
+      <c r="AT76" s="83"/>
+      <c r="AU76" s="83"/>
+      <c r="AV76" s="83"/>
+      <c r="AW76" s="83"/>
+      <c r="AX76" s="83"/>
+      <c r="AY76" s="83"/>
+      <c r="AZ76" s="83"/>
+      <c r="BA76" s="83"/>
+      <c r="BB76" s="83"/>
+      <c r="BC76" s="83"/>
+      <c r="BD76" s="83"/>
+      <c r="BE76" s="84"/>
       <c r="BF76" s="31"/>
       <c r="BG76" s="31"/>
       <c r="BH76" s="31"/>
@@ -8827,14 +8841,14 @@
       <c r="BJ76" s="31"/>
       <c r="BK76" s="31"/>
     </row>
-    <row r="77" spans="1:63" outlineLevel="1">
+    <row r="77" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A77" s="52"/>
       <c r="B77" s="32">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D77" s="34"/>
       <c r="E77" s="34"/>
@@ -8843,7 +8857,7 @@
       <c r="H77" s="34"/>
       <c r="I77" s="35"/>
       <c r="J77" s="33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="34"/>
@@ -8880,24 +8894,24 @@
       <c r="AM77" s="34"/>
       <c r="AN77" s="34"/>
       <c r="AO77" s="35"/>
-      <c r="AP77" s="55" t="s">
+      <c r="AP77" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="AQ77" s="34"/>
-      <c r="AR77" s="34"/>
-      <c r="AS77" s="34"/>
-      <c r="AT77" s="34"/>
-      <c r="AU77" s="34"/>
-      <c r="AV77" s="34"/>
-      <c r="AW77" s="34"/>
-      <c r="AX77" s="34"/>
-      <c r="AY77" s="34"/>
-      <c r="AZ77" s="34"/>
-      <c r="BA77" s="34"/>
-      <c r="BB77" s="34"/>
-      <c r="BC77" s="34"/>
-      <c r="BD77" s="34"/>
-      <c r="BE77" s="35"/>
+      <c r="AQ77" s="83"/>
+      <c r="AR77" s="83"/>
+      <c r="AS77" s="83"/>
+      <c r="AT77" s="83"/>
+      <c r="AU77" s="83"/>
+      <c r="AV77" s="83"/>
+      <c r="AW77" s="83"/>
+      <c r="AX77" s="83"/>
+      <c r="AY77" s="83"/>
+      <c r="AZ77" s="83"/>
+      <c r="BA77" s="83"/>
+      <c r="BB77" s="83"/>
+      <c r="BC77" s="83"/>
+      <c r="BD77" s="83"/>
+      <c r="BE77" s="84"/>
       <c r="BF77" s="31"/>
       <c r="BG77" s="31"/>
       <c r="BH77" s="31"/>
@@ -8905,7 +8919,7 @@
       <c r="BJ77" s="31"/>
       <c r="BK77" s="31"/>
     </row>
-    <row r="78" spans="1:63">
+    <row r="78" spans="1:63" ht="16.5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -8972,7 +8986,7 @@
     </row>
     <row r="79" spans="1:63" ht="15.75" customHeight="1">
       <c r="A79" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -9037,7 +9051,7 @@
       <c r="BJ79" s="9"/>
       <c r="BK79" s="9"/>
     </row>
-    <row r="80" spans="1:63">
+    <row r="80" spans="1:63" ht="16.5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -9102,7 +9116,7 @@
       <c r="BJ80" s="3"/>
       <c r="BK80" s="3"/>
     </row>
-    <row r="81" spans="1:63">
+    <row r="81" spans="1:63" ht="16.5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -9167,9 +9181,9 @@
       <c r="BJ81" s="3"/>
       <c r="BK81" s="3"/>
     </row>
-    <row r="82" spans="1:63">
+    <row r="82" spans="1:63" ht="16.5">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -9234,7 +9248,7 @@
       <c r="BJ82" s="2"/>
       <c r="BK82" s="2"/>
     </row>
-    <row r="83" spans="1:63">
+    <row r="83" spans="1:63" ht="16.5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -9299,7 +9313,7 @@
       <c r="BJ83" s="3"/>
       <c r="BK83" s="3"/>
     </row>
-    <row r="84" spans="1:63">
+    <row r="84" spans="1:63" ht="16.5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -9366,22 +9380,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="R57:W57"/>
-    <mergeCell ref="R58:W58"/>
-    <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="R56:W56"/>
-    <mergeCell ref="L57:Q57"/>
-    <mergeCell ref="L58:Q58"/>
-    <mergeCell ref="AD58:AF58"/>
-    <mergeCell ref="L59:Q59"/>
-    <mergeCell ref="L60:Q60"/>
-    <mergeCell ref="R60:W60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="AD61:AF61"/>
-    <mergeCell ref="AD59:AF59"/>
-    <mergeCell ref="R59:W59"/>
     <mergeCell ref="AP70:BE70"/>
     <mergeCell ref="AP71:BE71"/>
     <mergeCell ref="S73:AG73"/>
@@ -9393,6 +9391,22 @@
     <mergeCell ref="AP68:BE68"/>
     <mergeCell ref="AP69:BE69"/>
     <mergeCell ref="AD62:AF62"/>
+    <mergeCell ref="L59:Q59"/>
+    <mergeCell ref="L60:Q60"/>
+    <mergeCell ref="R60:W60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="AD61:AF61"/>
+    <mergeCell ref="AD59:AF59"/>
+    <mergeCell ref="R59:W59"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="R57:W57"/>
+    <mergeCell ref="R58:W58"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="R56:W56"/>
+    <mergeCell ref="L57:Q57"/>
+    <mergeCell ref="L58:Q58"/>
+    <mergeCell ref="AD58:AF58"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9507,7 +9521,7 @@
       <c r="BE1" s="9"/>
       <c r="BF1" s="9"/>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:58" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -9567,7 +9581,7 @@
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:58" ht="16.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -9689,7 +9703,7 @@
       <c r="BE4" s="9"/>
       <c r="BF4" s="9"/>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:58" ht="16.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -9749,7 +9763,7 @@
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:58" ht="16.5">
       <c r="A6" s="3"/>
       <c r="B6" s="14" t="s">
         <v>37</v>
@@ -9811,43 +9825,43 @@
       <c r="BE6" s="3"/>
       <c r="BF6" s="3"/>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:58" ht="16.5">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64"/>
-      <c r="AH7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="66"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
@@ -9873,43 +9887,43 @@
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:58" ht="16.5">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="66"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
@@ -9935,7 +9949,7 @@
       <c r="BE8" s="3"/>
       <c r="BF8" s="3"/>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:58" ht="16.5">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -9995,7 +10009,7 @@
       <c r="BE9" s="3"/>
       <c r="BF9" s="3"/>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:58" ht="16.5">
       <c r="A10" s="3"/>
       <c r="B10" s="14" t="s">
         <v>41</v>
@@ -10057,7 +10071,7 @@
       <c r="BE10" s="3"/>
       <c r="BF10" s="3"/>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" spans="1:58" ht="16.5">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="16" t="s">
@@ -10119,45 +10133,45 @@
       <c r="BE11" s="3"/>
       <c r="BF11" s="3"/>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:58" ht="16.5">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="75" t="s">
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="77"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="79"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
@@ -10183,41 +10197,41 @@
       <c r="BE12" s="3"/>
       <c r="BF12" s="3"/>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:58" ht="16.5">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="65"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="66"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
@@ -10243,41 +10257,41 @@
       <c r="BE13" s="3"/>
       <c r="BF13" s="3"/>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" spans="1:58" ht="16.5">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="65"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="65"/>
+      <c r="AH14" s="66"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
@@ -10303,41 +10317,41 @@
       <c r="BE14" s="3"/>
       <c r="BF14" s="3"/>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" spans="1:58" ht="16.5">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="65"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="66"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
@@ -10363,41 +10377,41 @@
       <c r="BE15" s="3"/>
       <c r="BF15" s="3"/>
     </row>
-    <row r="16" spans="1:58">
+    <row r="16" spans="1:58" ht="16.5">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="64"/>
-      <c r="AG16" s="64"/>
-      <c r="AH16" s="65"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="66"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
@@ -10423,41 +10437,41 @@
       <c r="BE16" s="3"/>
       <c r="BF16" s="3"/>
     </row>
-    <row r="17" spans="1:58">
+    <row r="17" spans="1:58" ht="16.5">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="64"/>
-      <c r="AF17" s="64"/>
-      <c r="AG17" s="64"/>
-      <c r="AH17" s="65"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="66"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
@@ -10483,41 +10497,41 @@
       <c r="BE17" s="3"/>
       <c r="BF17" s="3"/>
     </row>
-    <row r="18" spans="1:58">
+    <row r="18" spans="1:58" ht="16.5">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="64"/>
-      <c r="AC18" s="64"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="64"/>
-      <c r="AH18" s="65"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="66"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
@@ -10543,7 +10557,7 @@
       <c r="BE18" s="3"/>
       <c r="BF18" s="3"/>
     </row>
-    <row r="19" spans="1:58">
+    <row r="19" spans="1:58" ht="16.5">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="16" t="s">
@@ -10605,45 +10619,45 @@
       <c r="BE19" s="3"/>
       <c r="BF19" s="3"/>
     </row>
-    <row r="20" spans="1:58">
+    <row r="20" spans="1:58" ht="16.5">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="75" t="s">
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="77"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="79"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
@@ -10669,41 +10683,41 @@
       <c r="BE20" s="3"/>
       <c r="BF20" s="3"/>
     </row>
-    <row r="21" spans="1:58">
+    <row r="21" spans="1:58" ht="16.5">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="64"/>
-      <c r="AB21" s="64"/>
-      <c r="AC21" s="64"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="64"/>
-      <c r="AF21" s="64"/>
-      <c r="AG21" s="64"/>
-      <c r="AH21" s="65"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="66"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
@@ -10729,41 +10743,41 @@
       <c r="BE21" s="3"/>
       <c r="BF21" s="3"/>
     </row>
-    <row r="22" spans="1:58">
+    <row r="22" spans="1:58" ht="16.5">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="64"/>
-      <c r="AF22" s="64"/>
-      <c r="AG22" s="64"/>
-      <c r="AH22" s="65"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="66"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
@@ -10789,41 +10803,41 @@
       <c r="BE22" s="3"/>
       <c r="BF22" s="3"/>
     </row>
-    <row r="23" spans="1:58">
+    <row r="23" spans="1:58" ht="16.5">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="64"/>
-      <c r="AF23" s="64"/>
-      <c r="AG23" s="64"/>
-      <c r="AH23" s="65"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="66"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
@@ -10849,41 +10863,41 @@
       <c r="BE23" s="3"/>
       <c r="BF23" s="3"/>
     </row>
-    <row r="24" spans="1:58">
+    <row r="24" spans="1:58" ht="16.5">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="64"/>
-      <c r="AH24" s="65"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="66"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
@@ -10909,41 +10923,41 @@
       <c r="BE24" s="3"/>
       <c r="BF24" s="3"/>
     </row>
-    <row r="25" spans="1:58">
+    <row r="25" spans="1:58" ht="16.5">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="64"/>
-      <c r="AA25" s="64"/>
-      <c r="AB25" s="64"/>
-      <c r="AC25" s="64"/>
-      <c r="AD25" s="64"/>
-      <c r="AE25" s="64"/>
-      <c r="AF25" s="64"/>
-      <c r="AG25" s="64"/>
-      <c r="AH25" s="65"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="66"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
@@ -10969,41 +10983,41 @@
       <c r="BE25" s="3"/>
       <c r="BF25" s="3"/>
     </row>
-    <row r="26" spans="1:58">
+    <row r="26" spans="1:58" ht="16.5">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="64"/>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="65"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="65"/>
+      <c r="AG26" s="65"/>
+      <c r="AH26" s="66"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
@@ -11029,7 +11043,7 @@
       <c r="BE26" s="3"/>
       <c r="BF26" s="3"/>
     </row>
-    <row r="27" spans="1:58">
+    <row r="27" spans="1:58" ht="16.5">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="16" t="s">
@@ -11091,45 +11105,45 @@
       <c r="BE27" s="3"/>
       <c r="BF27" s="3"/>
     </row>
-    <row r="28" spans="1:58">
+    <row r="28" spans="1:58" ht="16.5">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="75" t="s">
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="76"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="76"/>
-      <c r="AG28" s="76"/>
-      <c r="AH28" s="77"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="79"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
@@ -11155,41 +11169,41 @@
       <c r="BE28" s="3"/>
       <c r="BF28" s="3"/>
     </row>
-    <row r="29" spans="1:58">
+    <row r="29" spans="1:58" ht="16.5">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="65"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="65"/>
+      <c r="AG29" s="65"/>
+      <c r="AH29" s="66"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
@@ -11215,41 +11229,41 @@
       <c r="BE29" s="3"/>
       <c r="BF29" s="3"/>
     </row>
-    <row r="30" spans="1:58">
+    <row r="30" spans="1:58" ht="16.5">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="64"/>
-      <c r="AC30" s="64"/>
-      <c r="AD30" s="64"/>
-      <c r="AE30" s="64"/>
-      <c r="AF30" s="64"/>
-      <c r="AG30" s="64"/>
-      <c r="AH30" s="65"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="65"/>
+      <c r="AH30" s="66"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
@@ -11275,41 +11289,41 @@
       <c r="BE30" s="3"/>
       <c r="BF30" s="3"/>
     </row>
-    <row r="31" spans="1:58">
+    <row r="31" spans="1:58" ht="16.5">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="64"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="64"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="64"/>
-      <c r="Z31" s="64"/>
-      <c r="AA31" s="64"/>
-      <c r="AB31" s="64"/>
-      <c r="AC31" s="64"/>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="64"/>
-      <c r="AF31" s="64"/>
-      <c r="AG31" s="64"/>
-      <c r="AH31" s="65"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="66"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
@@ -11335,41 +11349,41 @@
       <c r="BE31" s="3"/>
       <c r="BF31" s="3"/>
     </row>
-    <row r="32" spans="1:58">
+    <row r="32" spans="1:58" ht="16.5">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="64"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="65"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="65"/>
+      <c r="AH32" s="66"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
@@ -11395,41 +11409,41 @@
       <c r="BE32" s="3"/>
       <c r="BF32" s="3"/>
     </row>
-    <row r="33" spans="1:58">
+    <row r="33" spans="1:58" ht="16.5">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="64"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="64"/>
-      <c r="AC33" s="64"/>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="64"/>
-      <c r="AH33" s="65"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="65"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="66"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
@@ -11455,41 +11469,41 @@
       <c r="BE33" s="3"/>
       <c r="BF33" s="3"/>
     </row>
-    <row r="34" spans="1:58">
+    <row r="34" spans="1:58" ht="16.5">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="65"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="65"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="66"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
@@ -11515,7 +11529,7 @@
       <c r="BE34" s="3"/>
       <c r="BF34" s="3"/>
     </row>
-    <row r="35" spans="1:58">
+    <row r="35" spans="1:58" ht="16.5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -11575,7 +11589,7 @@
       <c r="BE35" s="3"/>
       <c r="BF35" s="3"/>
     </row>
-    <row r="36" spans="1:58">
+    <row r="36" spans="1:58" ht="16.5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -11635,7 +11649,7 @@
       <c r="BE36" s="3"/>
       <c r="BF36" s="3"/>
     </row>
-    <row r="37" spans="1:58">
+    <row r="37" spans="1:58" ht="16.5">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -11695,7 +11709,7 @@
       <c r="BE37" s="3"/>
       <c r="BF37" s="3"/>
     </row>
-    <row r="38" spans="1:58">
+    <row r="38" spans="1:58" ht="16.5">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -11755,7 +11769,7 @@
       <c r="BE38" s="3"/>
       <c r="BF38" s="3"/>
     </row>
-    <row r="39" spans="1:58">
+    <row r="39" spans="1:58" ht="16.5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -11815,7 +11829,7 @@
       <c r="BE39" s="3"/>
       <c r="BF39" s="3"/>
     </row>
-    <row r="40" spans="1:58">
+    <row r="40" spans="1:58" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -11875,7 +11889,7 @@
       <c r="BE40" s="3"/>
       <c r="BF40" s="3"/>
     </row>
-    <row r="41" spans="1:58">
+    <row r="41" spans="1:58" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -11935,7 +11949,7 @@
       <c r="BE41" s="3"/>
       <c r="BF41" s="3"/>
     </row>
-    <row r="42" spans="1:58">
+    <row r="42" spans="1:58" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -11995,7 +12009,7 @@
       <c r="BE42" s="3"/>
       <c r="BF42" s="3"/>
     </row>
-    <row r="43" spans="1:58">
+    <row r="43" spans="1:58" ht="16.5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
@@ -12117,24 +12131,18 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="J12:AH12"/>
-    <mergeCell ref="J13:AH13"/>
-    <mergeCell ref="I7:AH7"/>
-    <mergeCell ref="I8:AH8"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="J16:AH16"/>
-    <mergeCell ref="J14:AH14"/>
-    <mergeCell ref="J15:AH15"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="J21:AH21"/>
-    <mergeCell ref="J20:AH20"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="J26:AH26"/>
+    <mergeCell ref="J28:AH28"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="J29:AH29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J32:AH32"/>
+    <mergeCell ref="J34:AH34"/>
+    <mergeCell ref="J33:AH33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
     <mergeCell ref="J31:AH31"/>
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="D17:I17"/>
@@ -12148,21 +12156,27 @@
     <mergeCell ref="D23:I23"/>
     <mergeCell ref="D26:I26"/>
     <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J32:AH32"/>
-    <mergeCell ref="J34:AH34"/>
-    <mergeCell ref="J33:AH33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
     <mergeCell ref="J25:AH25"/>
     <mergeCell ref="D25:I25"/>
     <mergeCell ref="J30:AH30"/>
-    <mergeCell ref="J26:AH26"/>
-    <mergeCell ref="J28:AH28"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="J29:AH29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J16:AH16"/>
+    <mergeCell ref="J14:AH14"/>
+    <mergeCell ref="J15:AH15"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="J21:AH21"/>
+    <mergeCell ref="J20:AH20"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="J12:AH12"/>
+    <mergeCell ref="J13:AH13"/>
+    <mergeCell ref="I7:AH7"/>
+    <mergeCell ref="I8:AH8"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
